--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/sample3_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/sample3_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\Angle\sample3_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F906F19-6794-4111-AFAB-905B38A262F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4084F0E1-EB1D-4630-98FD-8C53AEBEDE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{DD303081-8931-4332-827D-BEB64891F9A0}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{D54FD572-80A4-4DD7-A32C-0AA3AF95873F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67633FC-356F-4258-A412-F3E07BB85258}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FADB54-4C5C-4DFC-836E-0FBF2DFBC760}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>40.235237511188323</v>
+        <v>5.9983322162927903</v>
       </c>
     </row>
   </sheetData>
